--- a/simulated_data/10nodes_30len_trial8.xlsx
+++ b/simulated_data/10nodes_30len_trial8.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.40537635229674</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.370017652336753</v>
+        <v>4.835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24.435</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23.545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.844999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23.645</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.575</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.49</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.592262083087901</v>
+        <v>4.835</v>
       </c>
       <c r="C3" t="n">
-        <v>1.570813134825991</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.135</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.175</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.835</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.02</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8300472302578009</v>
+        <v>21.58</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8122839437788754</v>
+        <v>12.59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.905</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.165</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4675794023396495</v>
+        <v>21.71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4391529087152263</v>
+        <v>25.135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.685</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.494999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.770931094173894</v>
+        <v>24.435</v>
       </c>
       <c r="C6" t="n">
-        <v>1.723917841798353</v>
+        <v>35.175</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.905</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.095000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.875</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9813442568841131</v>
+        <v>23.545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9533854710849475</v>
+        <v>22.71</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.494999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.095000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.630000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.063265350471795</v>
+        <v>9.844999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>1.033403013943237</v>
+        <v>3.88</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33.785</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13.545</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.44</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.972526373888849</v>
+        <v>23.645</v>
       </c>
       <c r="C9" t="n">
-        <v>1.935589694759226</v>
+        <v>17.835</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.565</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.630000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>33.785</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.42</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4252465385419937</v>
+        <v>27.575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.386599581699989</v>
+        <v>25.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.545</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>22.49</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>16.02</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="D2" t="n">
-        <v>17.92</v>
+        <v>17.99</v>
       </c>
       <c r="E2" t="n">
-        <v>22.13</v>
+        <v>24.19</v>
       </c>
       <c r="F2" t="n">
-        <v>28.85</v>
+        <v>25.82</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>20.15</v>
       </c>
       <c r="H2" t="n">
-        <v>11.33</v>
+        <v>12.34</v>
       </c>
       <c r="I2" t="n">
-        <v>25.83</v>
+        <v>24.74</v>
       </c>
       <c r="J2" t="n">
-        <v>25.33</v>
+        <v>26.59</v>
       </c>
       <c r="K2" t="n">
-        <v>17.87</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.54</v>
+        <v>7.11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.03</v>
+        <v>12.37</v>
       </c>
       <c r="E3" t="n">
-        <v>19.08</v>
+        <v>18.19</v>
       </c>
       <c r="F3" t="n">
-        <v>28.12</v>
+        <v>23.13</v>
       </c>
       <c r="G3" t="n">
-        <v>19.39</v>
+        <v>15.27</v>
       </c>
       <c r="H3" t="n">
-        <v>7.16</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>25.51</v>
+        <v>21.55</v>
       </c>
       <c r="J3" t="n">
-        <v>22.17</v>
+        <v>20.62</v>
       </c>
       <c r="K3" t="n">
-        <v>16.6</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.92</v>
+        <v>17.99</v>
       </c>
       <c r="C4" t="n">
-        <v>16.03</v>
+        <v>12.37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.76</v>
+        <v>6.27</v>
       </c>
       <c r="F4" t="n">
-        <v>12.97</v>
+        <v>13.66</v>
       </c>
       <c r="G4" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="H4" t="n">
-        <v>11.84</v>
+        <v>8.57</v>
       </c>
       <c r="I4" t="n">
-        <v>11.49</v>
+        <v>11.53</v>
       </c>
       <c r="J4" t="n">
-        <v>9.58</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.13</v>
+        <v>24.19</v>
       </c>
       <c r="C5" t="n">
-        <v>19.08</v>
+        <v>18.19</v>
       </c>
       <c r="D5" t="n">
-        <v>6.76</v>
+        <v>6.27</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.83</v>
+        <v>14.16</v>
       </c>
       <c r="G5" t="n">
-        <v>7.55</v>
+        <v>5.91</v>
       </c>
       <c r="H5" t="n">
-        <v>12.81</v>
+        <v>13.61</v>
       </c>
       <c r="I5" t="n">
-        <v>15.85</v>
+        <v>11.93</v>
       </c>
       <c r="J5" t="n">
-        <v>3.23</v>
+        <v>2.43</v>
       </c>
       <c r="K5" t="n">
-        <v>9.119999999999999</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.85</v>
+        <v>25.82</v>
       </c>
       <c r="C6" t="n">
-        <v>28.12</v>
+        <v>23.13</v>
       </c>
       <c r="D6" t="n">
-        <v>12.97</v>
+        <v>13.66</v>
       </c>
       <c r="E6" t="n">
-        <v>15.83</v>
+        <v>14.16</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.630000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="H6" t="n">
-        <v>24.8</v>
+        <v>21.31</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>2.26</v>
       </c>
       <c r="J6" t="n">
-        <v>16.23</v>
+        <v>14.39</v>
       </c>
       <c r="K6" t="n">
-        <v>11.62</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>20.15</v>
       </c>
       <c r="C7" t="n">
-        <v>19.39</v>
+        <v>15.27</v>
       </c>
       <c r="D7" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="E7" t="n">
-        <v>7.55</v>
+        <v>5.91</v>
       </c>
       <c r="F7" t="n">
-        <v>9.630000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.27</v>
+        <v>12.01</v>
       </c>
       <c r="I7" t="n">
-        <v>8.630000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="J7" t="n">
-        <v>9.48</v>
+        <v>7.68</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.33</v>
+        <v>12.34</v>
       </c>
       <c r="C8" t="n">
-        <v>7.16</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="n">
-        <v>11.84</v>
+        <v>8.57</v>
       </c>
       <c r="E8" t="n">
-        <v>12.81</v>
+        <v>13.61</v>
       </c>
       <c r="F8" t="n">
-        <v>24.8</v>
+        <v>21.31</v>
       </c>
       <c r="G8" t="n">
-        <v>15.27</v>
+        <v>12.01</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>22.96</v>
+        <v>19.4</v>
       </c>
       <c r="J8" t="n">
-        <v>15.66</v>
+        <v>16.01</v>
       </c>
       <c r="K8" t="n">
-        <v>13.39</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.83</v>
+        <v>24.74</v>
       </c>
       <c r="C9" t="n">
-        <v>25.51</v>
+        <v>21.55</v>
       </c>
       <c r="D9" t="n">
-        <v>11.49</v>
+        <v>11.53</v>
       </c>
       <c r="E9" t="n">
-        <v>15.85</v>
+        <v>11.93</v>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>8.630000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="H9" t="n">
-        <v>22.96</v>
+        <v>19.4</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16.97</v>
+        <v>12.26</v>
       </c>
       <c r="K9" t="n">
-        <v>9.57</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.33</v>
+        <v>26.59</v>
       </c>
       <c r="C10" t="n">
-        <v>22.17</v>
+        <v>20.62</v>
       </c>
       <c r="D10" t="n">
-        <v>9.58</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>3.23</v>
+        <v>2.43</v>
       </c>
       <c r="F10" t="n">
-        <v>16.23</v>
+        <v>14.39</v>
       </c>
       <c r="G10" t="n">
-        <v>9.48</v>
+        <v>7.68</v>
       </c>
       <c r="H10" t="n">
-        <v>15.66</v>
+        <v>16.01</v>
       </c>
       <c r="I10" t="n">
-        <v>16.97</v>
+        <v>12.26</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>11.72</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.87</v>
+        <v>18.55</v>
       </c>
       <c r="C11" t="n">
-        <v>16.6</v>
+        <v>13.26</v>
       </c>
       <c r="D11" t="n">
-        <v>2.54</v>
+        <v>1.34</v>
       </c>
       <c r="E11" t="n">
-        <v>9.119999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="F11" t="n">
-        <v>11.62</v>
+        <v>12.32</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>13.39</v>
+        <v>9.76</v>
       </c>
       <c r="I11" t="n">
-        <v>9.57</v>
+        <v>10.18</v>
       </c>
       <c r="J11" t="n">
-        <v>11.72</v>
+        <v>8.32</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-12.68825311712035</v>
+        <v>-15.85263475983065</v>
       </c>
       <c r="C2" t="n">
-        <v>10.48170719210073</v>
+        <v>7.434645465080306</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-13.29027649232832</v>
+        <v>-11.87105002944876</v>
       </c>
       <c r="C3" t="n">
-        <v>5.982449951091921</v>
+        <v>1.548892989338088</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.224573398888167</v>
+        <v>0.344374228101812</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8161207080495535</v>
+        <v>-0.3969065274979948</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2091051892237696</v>
+        <v>5.425996746158847</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.501053658324181</v>
+        <v>-4.071540873361537</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.17425460369652</v>
+        <v>9.894522925516787</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04476040385833068</v>
+        <v>9.368218139810883</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.64009425012828</v>
+        <v>3.403488541489586</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.390037234028039</v>
+        <v>1.483546347605265</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.61361888370685</v>
+        <v>-8.048481218284357</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6557753118906146</v>
+        <v>-2.129047396185104</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.04801666638764</v>
+        <v>8.88662776446721</v>
       </c>
       <c r="C9" t="n">
-        <v>3.038396776431673</v>
+        <v>7.341109891410666</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.660390389299091</v>
+        <v>7.724523684600789</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.38660051944023</v>
+        <v>-4.86010444198931</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.635713995532051</v>
+        <v>1.351198759228976</v>
       </c>
       <c r="C11" t="n">
-        <v>1.291793915966633</v>
+        <v>0.4901031398838759</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.4</v>
+        <v>5.12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.17</v>
+        <v>17.49</v>
       </c>
       <c r="E2" t="n">
-        <v>21.11</v>
+        <v>22.87</v>
       </c>
       <c r="F2" t="n">
-        <v>27.71</v>
+        <v>19.14</v>
       </c>
       <c r="G2" t="n">
-        <v>14.73</v>
+        <v>19.59</v>
       </c>
       <c r="H2" t="n">
-        <v>11.65</v>
+        <v>11.99</v>
       </c>
       <c r="I2" t="n">
-        <v>28.37</v>
+        <v>15.66</v>
       </c>
       <c r="J2" t="n">
-        <v>23.09</v>
+        <v>23.34</v>
       </c>
       <c r="K2" t="n">
-        <v>15.17</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.4</v>
+        <v>5.12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.63</v>
+        <v>12.37</v>
       </c>
       <c r="E3" t="n">
-        <v>17.37</v>
+        <v>17.75</v>
       </c>
       <c r="F3" t="n">
-        <v>25.73</v>
+        <v>14.02</v>
       </c>
       <c r="G3" t="n">
-        <v>13.19</v>
+        <v>14.47</v>
       </c>
       <c r="H3" t="n">
-        <v>7.26</v>
+        <v>6.87</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17</v>
+        <v>10.54</v>
       </c>
       <c r="J3" t="n">
-        <v>19.35</v>
+        <v>18.22</v>
       </c>
       <c r="K3" t="n">
-        <v>14.07</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.17</v>
+        <v>17.49</v>
       </c>
       <c r="C4" t="n">
-        <v>13.63</v>
+        <v>12.37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.43</v>
+        <v>5.37</v>
       </c>
       <c r="F4" t="n">
-        <v>12.53</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>0.44</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>14.07</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>13.19</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
-        <v>12.75</v>
+        <v>5.84</v>
       </c>
       <c r="K4" t="n">
-        <v>1.98</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.11</v>
+        <v>22.87</v>
       </c>
       <c r="C5" t="n">
-        <v>17.37</v>
+        <v>17.75</v>
       </c>
       <c r="D5" t="n">
-        <v>11.43</v>
+        <v>5.37</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.51</v>
+        <v>3.73</v>
       </c>
       <c r="G5" t="n">
-        <v>11.21</v>
+        <v>3.27</v>
       </c>
       <c r="H5" t="n">
-        <v>12.53</v>
+        <v>10.88</v>
       </c>
       <c r="I5" t="n">
-        <v>14.07</v>
+        <v>7.21</v>
       </c>
       <c r="J5" t="n">
-        <v>1.98</v>
+        <v>0.47</v>
       </c>
       <c r="K5" t="n">
-        <v>13.41</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.71</v>
+        <v>19.14</v>
       </c>
       <c r="C6" t="n">
-        <v>25.73</v>
+        <v>14.02</v>
       </c>
       <c r="D6" t="n">
-        <v>12.53</v>
+        <v>1.65</v>
       </c>
       <c r="E6" t="n">
-        <v>14.51</v>
+        <v>3.73</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.97</v>
+        <v>0.46</v>
       </c>
       <c r="H6" t="n">
-        <v>24.41</v>
+        <v>7.15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.32</v>
+        <v>3.48</v>
       </c>
       <c r="J6" t="n">
-        <v>14.07</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>12.75</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.73</v>
+        <v>19.59</v>
       </c>
       <c r="C7" t="n">
-        <v>13.19</v>
+        <v>14.47</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44</v>
+        <v>2.1</v>
       </c>
       <c r="E7" t="n">
-        <v>11.21</v>
+        <v>3.27</v>
       </c>
       <c r="F7" t="n">
-        <v>12.97</v>
+        <v>0.46</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.63</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>13.41</v>
+        <v>3.93</v>
       </c>
       <c r="J7" t="n">
-        <v>12.53</v>
+        <v>3.74</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.65</v>
+        <v>11.99</v>
       </c>
       <c r="C8" t="n">
-        <v>7.26</v>
+        <v>6.87</v>
       </c>
       <c r="D8" t="n">
-        <v>14.07</v>
+        <v>5.5</v>
       </c>
       <c r="E8" t="n">
-        <v>12.53</v>
+        <v>10.88</v>
       </c>
       <c r="F8" t="n">
-        <v>24.41</v>
+        <v>7.15</v>
       </c>
       <c r="G8" t="n">
-        <v>13.63</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.41</v>
+        <v>3.67</v>
       </c>
       <c r="J8" t="n">
-        <v>14.29</v>
+        <v>11.35</v>
       </c>
       <c r="K8" t="n">
-        <v>15.61</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.37</v>
+        <v>15.66</v>
       </c>
       <c r="C9" t="n">
-        <v>26.17</v>
+        <v>10.54</v>
       </c>
       <c r="D9" t="n">
-        <v>13.19</v>
+        <v>1.83</v>
       </c>
       <c r="E9" t="n">
-        <v>14.07</v>
+        <v>7.21</v>
       </c>
       <c r="F9" t="n">
-        <v>1.32</v>
+        <v>3.48</v>
       </c>
       <c r="G9" t="n">
-        <v>13.41</v>
+        <v>3.93</v>
       </c>
       <c r="H9" t="n">
-        <v>24.41</v>
+        <v>3.67</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.41</v>
+        <v>7.68</v>
       </c>
       <c r="K9" t="n">
-        <v>13.63</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.09</v>
+        <v>23.34</v>
       </c>
       <c r="C10" t="n">
-        <v>19.35</v>
+        <v>18.22</v>
       </c>
       <c r="D10" t="n">
-        <v>12.75</v>
+        <v>5.84</v>
       </c>
       <c r="E10" t="n">
-        <v>1.98</v>
+        <v>0.47</v>
       </c>
       <c r="F10" t="n">
-        <v>14.07</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>12.53</v>
+        <v>3.74</v>
       </c>
       <c r="H10" t="n">
-        <v>14.29</v>
+        <v>11.35</v>
       </c>
       <c r="I10" t="n">
-        <v>13.41</v>
+        <v>7.68</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.73</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.17</v>
+        <v>17.1</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>11.98</v>
       </c>
       <c r="D11" t="n">
-        <v>1.98</v>
+        <v>0.4</v>
       </c>
       <c r="E11" t="n">
-        <v>13.41</v>
+        <v>5.77</v>
       </c>
       <c r="F11" t="n">
-        <v>12.75</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>15.61</v>
+        <v>5.11</v>
       </c>
       <c r="I11" t="n">
-        <v>13.63</v>
+        <v>1.44</v>
       </c>
       <c r="J11" t="n">
-        <v>14.73</v>
+        <v>6.24</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1587486037242561</v>
+        <v>13.08876487362625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6685181091319518</v>
+        <v>13.08876487362619</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268493598869149</v>
+        <v>9.467873049003753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4975439180696452</v>
+        <v>9.467873049003726</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1607004573388383</v>
+        <v>0.7197160083322249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05503802418854085</v>
+        <v>0.7197160083322987</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2268008150194597</v>
+        <v>-3.080338475517538</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2883090888066654</v>
+        <v>-3.080338475517467</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.4119369223869227</v>
+        <v>-0.4435776805332827</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4544840986744572</v>
+        <v>-0.443577680533222</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1454401846382238</v>
+        <v>-0.7667588352312575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06633541828136255</v>
+        <v>-0.7667588352311584</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.45710352338951</v>
+        <v>4.610483204261616</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2306752427678123</v>
+        <v>4.6104832042615</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3771454232901573</v>
+        <v>2.015078744363962</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.500772580089081</v>
+        <v>2.015078744363992</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2199813869806267</v>
+        <v>-3.413197652897611</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3766670294623634</v>
+        <v>-3.413197652897579</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2415252294427584</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.104812586312907</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.46</v>
+        <v>4.54</v>
       </c>
       <c r="D2" t="n">
-        <v>19.75</v>
+        <v>17.92</v>
       </c>
       <c r="E2" t="n">
-        <v>25.87</v>
+        <v>22.13</v>
       </c>
       <c r="F2" t="n">
-        <v>20.81</v>
+        <v>28.85</v>
       </c>
       <c r="G2" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>11.96</v>
+        <v>11.33</v>
       </c>
       <c r="I2" t="n">
-        <v>19.8</v>
+        <v>25.83</v>
       </c>
       <c r="J2" t="n">
-        <v>28.07</v>
+        <v>25.33</v>
       </c>
       <c r="K2" t="n">
-        <v>20.97</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.46</v>
+        <v>4.54</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.38</v>
+        <v>16.03</v>
       </c>
       <c r="E3" t="n">
-        <v>20.26</v>
+        <v>19.08</v>
       </c>
       <c r="F3" t="n">
-        <v>18.34</v>
+        <v>28.12</v>
       </c>
       <c r="G3" t="n">
-        <v>15.5</v>
+        <v>19.39</v>
       </c>
       <c r="H3" t="n">
-        <v>4.98</v>
+        <v>7.16</v>
       </c>
       <c r="I3" t="n">
-        <v>16.59</v>
+        <v>25.51</v>
       </c>
       <c r="J3" t="n">
-        <v>22.62</v>
+        <v>22.17</v>
       </c>
       <c r="K3" t="n">
-        <v>14.6</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.75</v>
+        <v>17.92</v>
       </c>
       <c r="C4" t="n">
-        <v>13.38</v>
+        <v>16.03</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.35</v>
+        <v>6.76</v>
       </c>
       <c r="F4" t="n">
-        <v>12.4</v>
+        <v>12.97</v>
       </c>
       <c r="G4" t="n">
-        <v>2.95</v>
+        <v>3.46</v>
       </c>
       <c r="H4" t="n">
-        <v>8.449999999999999</v>
+        <v>11.84</v>
       </c>
       <c r="I4" t="n">
-        <v>9.94</v>
+        <v>11.49</v>
       </c>
       <c r="J4" t="n">
-        <v>9.75</v>
+        <v>9.58</v>
       </c>
       <c r="K4" t="n">
-        <v>1.22</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.87</v>
+        <v>22.13</v>
       </c>
       <c r="C5" t="n">
-        <v>20.26</v>
+        <v>19.08</v>
       </c>
       <c r="D5" t="n">
-        <v>7.35</v>
+        <v>6.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.31</v>
+        <v>15.83</v>
       </c>
       <c r="G5" t="n">
-        <v>4.77</v>
+        <v>7.55</v>
       </c>
       <c r="H5" t="n">
-        <v>15.52</v>
+        <v>12.81</v>
       </c>
       <c r="I5" t="n">
-        <v>9.56</v>
+        <v>15.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.41</v>
+        <v>3.23</v>
       </c>
       <c r="K5" t="n">
-        <v>6.35</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.81</v>
+        <v>28.85</v>
       </c>
       <c r="C6" t="n">
-        <v>18.34</v>
+        <v>28.12</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4</v>
+        <v>12.97</v>
       </c>
       <c r="E6" t="n">
-        <v>11.31</v>
+        <v>15.83</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.37</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>15.53</v>
+        <v>24.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.47</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>12.1</v>
+        <v>16.23</v>
       </c>
       <c r="K6" t="n">
-        <v>12.61</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5</v>
+        <v>19.39</v>
       </c>
       <c r="D7" t="n">
-        <v>2.95</v>
+        <v>3.46</v>
       </c>
       <c r="E7" t="n">
-        <v>4.77</v>
+        <v>7.55</v>
       </c>
       <c r="F7" t="n">
-        <v>10.37</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.76</v>
+        <v>15.27</v>
       </c>
       <c r="I7" t="n">
-        <v>8.01</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>7.16</v>
+        <v>9.48</v>
       </c>
       <c r="K7" t="n">
-        <v>2.47</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.96</v>
+        <v>11.33</v>
       </c>
       <c r="C8" t="n">
-        <v>4.98</v>
+        <v>7.16</v>
       </c>
       <c r="D8" t="n">
-        <v>8.449999999999999</v>
+        <v>11.84</v>
       </c>
       <c r="E8" t="n">
-        <v>15.52</v>
+        <v>12.81</v>
       </c>
       <c r="F8" t="n">
-        <v>15.53</v>
+        <v>24.8</v>
       </c>
       <c r="G8" t="n">
-        <v>10.76</v>
+        <v>15.27</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.4</v>
+        <v>22.96</v>
       </c>
       <c r="J8" t="n">
-        <v>17.91</v>
+        <v>15.66</v>
       </c>
       <c r="K8" t="n">
-        <v>9.66</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.8</v>
+        <v>25.83</v>
       </c>
       <c r="C9" t="n">
-        <v>16.59</v>
+        <v>25.51</v>
       </c>
       <c r="D9" t="n">
-        <v>9.94</v>
+        <v>11.49</v>
       </c>
       <c r="E9" t="n">
-        <v>9.56</v>
+        <v>15.85</v>
       </c>
       <c r="F9" t="n">
-        <v>2.47</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>8.01</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>13.4</v>
+        <v>22.96</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.74</v>
+        <v>16.97</v>
       </c>
       <c r="K9" t="n">
-        <v>10.19</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.07</v>
+        <v>25.33</v>
       </c>
       <c r="C10" t="n">
-        <v>22.62</v>
+        <v>22.17</v>
       </c>
       <c r="D10" t="n">
-        <v>9.75</v>
+        <v>9.58</v>
       </c>
       <c r="E10" t="n">
-        <v>2.41</v>
+        <v>3.23</v>
       </c>
       <c r="F10" t="n">
-        <v>12.1</v>
+        <v>16.23</v>
       </c>
       <c r="G10" t="n">
-        <v>7.16</v>
+        <v>9.48</v>
       </c>
       <c r="H10" t="n">
-        <v>17.91</v>
+        <v>15.66</v>
       </c>
       <c r="I10" t="n">
-        <v>10.74</v>
+        <v>16.97</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.74</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.97</v>
+        <v>17.87</v>
       </c>
       <c r="C11" t="n">
-        <v>14.6</v>
+        <v>16.6</v>
       </c>
       <c r="D11" t="n">
-        <v>1.22</v>
+        <v>2.54</v>
       </c>
       <c r="E11" t="n">
-        <v>6.35</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>12.61</v>
+        <v>11.62</v>
       </c>
       <c r="G11" t="n">
-        <v>2.47</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>9.66</v>
+        <v>13.39</v>
       </c>
       <c r="I11" t="n">
-        <v>10.19</v>
+        <v>9.57</v>
       </c>
       <c r="J11" t="n">
-        <v>8.74</v>
+        <v>11.72</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5600299918587</v>
+        <v>7.688378159615164</v>
       </c>
       <c r="C2" t="n">
-        <v>17.235344906643</v>
+        <v>-14.55152205439198</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.471851365826098</v>
+        <v>3.16057640073704</v>
       </c>
       <c r="C3" t="n">
-        <v>14.91479620069031</v>
+        <v>-14.22785695299787</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.819043062335763</v>
+        <v>-0.5505986100946897</v>
       </c>
       <c r="C4" t="n">
-        <v>3.692772572358901</v>
+        <v>1.364724950303088</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.787852122691571</v>
+        <v>-7.302498528651455</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.588699153649515</v>
+        <v>1.727149734328025</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.510332399344708</v>
+        <v>2.832945185630325</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.172676148046506</v>
+        <v>13.88833750450732</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.04703552647485</v>
+        <v>-0.4193642704505529</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8500291493267738</v>
+        <v>4.825641073560509</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.309094520718595</v>
+        <v>-2.796242595761558</v>
       </c>
       <c r="C8" t="n">
-        <v>11.07092022271521</v>
+        <v>-10.25962837602289</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.570033406666602</v>
+        <v>5.42039783378846</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.638609749101139</v>
+        <v>11.18060140992714</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.266188735287012</v>
+        <v>-9.833440471344574</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.952352601617066</v>
+        <v>3.733874005953337</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.615333356243842</v>
+        <v>1.799846896531838</v>
       </c>
       <c r="C11" t="n">
-        <v>2.76236905797616</v>
+        <v>2.318678704833327</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001664161682128906</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001275539398193359</v>
+        <v>6.61</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4412815570831299</v>
+        <v>17.63</v>
       </c>
       <c r="E2" t="n">
-        <v>1.75096583366394</v>
+        <v>19.61</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1369686126708984</v>
+        <v>29.53</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8372869491577148</v>
+        <v>16.97</v>
       </c>
       <c r="H2" t="n">
-        <v>1.907223463058472</v>
+        <v>8.15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="J3" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.6159302939112927</v>
       </c>
       <c r="C2" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9402834008097166</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.089777777777778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2827075341046867</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001664161682128906</v>
+        <v>0.3817787565351869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.596709384796305</v>
       </c>
       <c r="C3" t="n">
-        <v>10.445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6804123711340209</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.778666666666667</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2001876170953209</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001275539398193359</v>
+        <v>0.08311892166593925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.02422382381011978</v>
       </c>
       <c r="C4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.458745874587459</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.907777777777778</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2272058182125611</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4412815570831299</v>
+        <v>-0.1525669885259935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.2610315356744372</v>
       </c>
       <c r="C5" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9941324392288349</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.31088888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9080973756321183</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.75096583366394</v>
+        <v>0.2093672402484462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.5009180445220055</v>
       </c>
       <c r="C6" t="n">
-        <v>4.740000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.351851851851852</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.269555555555556</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1477277545655453</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1369686126708984</v>
+        <v>-0.3523752797699805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.04969991299050881</v>
       </c>
       <c r="C7" t="n">
-        <v>7.629999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8952380952380953</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.634</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2676204608537345</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8372869491577148</v>
+        <v>-0.1401711763720921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.2462998568767844</v>
       </c>
       <c r="C8" t="n">
-        <v>11.43</v>
+        <v>0.4230547573200351</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4654181254208877</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3944629972537113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3733275471694113</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1921390723838381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.06817418550471546</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.248897817742039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="E2" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.462046204620462</v>
+        <v>9.32</v>
       </c>
       <c r="E8" t="n">
-        <v>3.186888888888889</v>
+        <v>17.34</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2236946609671558</v>
+        <v>12.24</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.907223463058472</v>
+        <v>8.039999999999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17.02466514555449</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.02451443143975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.78503281698137</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.78669974618836</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.694134315091783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.908247184069309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.866793691238503</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.864616170670344</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5979458951801059</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8786610773367708</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.08947689722627024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1076135949816129</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.395103513688426</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.389271405033078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.852052944742856</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.563672527081573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.442842639400642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.440748842608911</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.877666914904867</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.908831279907856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5561780485191372</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1383365385332997</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5225120541007757</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1913900516637924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1853567754464528</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03678558175984865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1437456272461816</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.4957739289382345</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2802531609790561</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2623003136251558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2894412868347985</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07879717745075623</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3312251952215611</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2772725011513686</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2116028312521271</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4289160836008616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1277531600478484</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5659074467736123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1717624560243085</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2024281302298804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>33.10437724327282</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.89136612950097</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34.95334417210535</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.310586374120083</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-8.569328664969136</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-11.58012980927112</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-7.993779111789702</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-13.37603934323478</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-22.74723017379102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.08015623448346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-16.18178156333423</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.444484079596188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23.85028258062548</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-12.72893360775972</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-18.38200730506955</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.92358605938886</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-9.27981002888445</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.221193065366903</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.754067148165548</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.854914892264678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002541542053222656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002715587615966797</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002593994140625</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.102085828781128</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.169233322143555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2524223327636719</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3757030963897705</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6636421680450439</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01373624801635742</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009747982025146484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.76</v>
+        <v>7.45</v>
       </c>
       <c r="D2" t="n">
-        <v>28.4</v>
+        <v>17.6</v>
       </c>
       <c r="E2" t="n">
-        <v>25.1</v>
+        <v>24.35</v>
       </c>
       <c r="F2" t="n">
-        <v>23.67</v>
+        <v>23.28</v>
       </c>
       <c r="G2" t="n">
-        <v>27.02</v>
+        <v>20.07</v>
       </c>
       <c r="H2" t="n">
-        <v>10.84</v>
+        <v>13.36</v>
       </c>
       <c r="I2" t="n">
-        <v>24.35</v>
+        <v>21.63</v>
       </c>
       <c r="J2" t="n">
-        <v>41.41</v>
+        <v>26.41</v>
       </c>
       <c r="K2" t="n">
-        <v>23.99</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.91</v>
+        <v>7.45</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.18</v>
+        <v>11.69</v>
       </c>
       <c r="E3" t="n">
-        <v>38.34</v>
+        <v>18.95</v>
       </c>
       <c r="F3" t="n">
-        <v>37.56</v>
+        <v>21.06</v>
       </c>
       <c r="G3" t="n">
-        <v>25.34</v>
+        <v>14.51</v>
       </c>
       <c r="H3" t="n">
-        <v>3.44</v>
+        <v>5.95</v>
       </c>
       <c r="I3" t="n">
-        <v>17.22</v>
+        <v>18.9</v>
       </c>
       <c r="J3" t="n">
-        <v>19.06</v>
+        <v>21.3</v>
       </c>
       <c r="K3" t="n">
-        <v>12.86</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.76</v>
+        <v>17.6</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>11.69</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.99</v>
+        <v>7.31</v>
       </c>
       <c r="F4" t="n">
-        <v>15.07</v>
+        <v>13.23</v>
       </c>
       <c r="G4" t="n">
-        <v>3.81</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7.95</v>
       </c>
       <c r="I4" t="n">
-        <v>10.59</v>
+        <v>10.77</v>
       </c>
       <c r="J4" t="n">
-        <v>11.39</v>
+        <v>9.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1.65</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.32</v>
+        <v>24.35</v>
       </c>
       <c r="C5" t="n">
-        <v>11.93</v>
+        <v>18.95</v>
       </c>
       <c r="D5" t="n">
-        <v>6.38</v>
+        <v>7.31</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.06</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>6.18</v>
+        <v>4.44</v>
       </c>
       <c r="H5" t="n">
-        <v>10.46</v>
+        <v>15.04</v>
       </c>
       <c r="I5" t="n">
-        <v>18.19</v>
+        <v>9.15</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>2.54</v>
       </c>
       <c r="K5" t="n">
-        <v>7.07</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.2</v>
+        <v>23.28</v>
       </c>
       <c r="C6" t="n">
-        <v>32.79</v>
+        <v>21.06</v>
       </c>
       <c r="D6" t="n">
-        <v>8.74</v>
+        <v>13.23</v>
       </c>
       <c r="E6" t="n">
-        <v>19.52</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.95</v>
+        <v>11.53</v>
       </c>
       <c r="H6" t="n">
-        <v>20.35</v>
+        <v>20.15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>14.09</v>
+        <v>10.45</v>
       </c>
       <c r="K6" t="n">
-        <v>13.62</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="7">
@@ -5519,31 +7688,31 @@
         <v>20.07</v>
       </c>
       <c r="C7" t="n">
-        <v>20.08</v>
+        <v>14.51</v>
       </c>
       <c r="D7" t="n">
-        <v>2.19</v>
+        <v>2.9</v>
       </c>
       <c r="E7" t="n">
-        <v>6.81</v>
+        <v>4.44</v>
       </c>
       <c r="F7" t="n">
-        <v>11.24</v>
+        <v>11.53</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.44</v>
+        <v>10.81</v>
       </c>
       <c r="I7" t="n">
-        <v>10.39</v>
+        <v>9.16</v>
       </c>
       <c r="J7" t="n">
-        <v>9.76</v>
+        <v>6.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.47</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.85</v>
+        <v>13.36</v>
       </c>
       <c r="C8" t="n">
-        <v>4.32</v>
+        <v>5.95</v>
       </c>
       <c r="D8" t="n">
-        <v>13.46</v>
+        <v>7.95</v>
       </c>
       <c r="E8" t="n">
-        <v>11.2</v>
+        <v>15.04</v>
       </c>
       <c r="F8" t="n">
-        <v>27.23</v>
+        <v>20.15</v>
       </c>
       <c r="G8" t="n">
-        <v>10.16</v>
+        <v>10.81</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>25.4</v>
+        <v>17.74</v>
       </c>
       <c r="J8" t="n">
-        <v>11.7</v>
+        <v>17.56</v>
       </c>
       <c r="K8" t="n">
-        <v>13.19</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.94</v>
+        <v>21.63</v>
       </c>
       <c r="C9" t="n">
-        <v>18.45</v>
+        <v>18.9</v>
       </c>
       <c r="D9" t="n">
-        <v>9.609999999999999</v>
+        <v>10.77</v>
       </c>
       <c r="E9" t="n">
-        <v>16.31</v>
+        <v>9.15</v>
       </c>
       <c r="F9" t="n">
-        <v>2.97</v>
+        <v>2.46</v>
       </c>
       <c r="G9" t="n">
-        <v>4.87</v>
+        <v>9.16</v>
       </c>
       <c r="H9" t="n">
-        <v>42.17</v>
+        <v>17.74</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.74</v>
+        <v>9.07</v>
       </c>
       <c r="K9" t="n">
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.74</v>
+        <v>26.41</v>
       </c>
       <c r="C10" t="n">
-        <v>31.24</v>
+        <v>21.3</v>
       </c>
       <c r="D10" t="n">
-        <v>7.23</v>
+        <v>9.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="F10" t="n">
-        <v>16.29</v>
+        <v>10.45</v>
       </c>
       <c r="G10" t="n">
-        <v>11.9</v>
+        <v>6.85</v>
       </c>
       <c r="H10" t="n">
-        <v>15.39</v>
+        <v>17.56</v>
       </c>
       <c r="I10" t="n">
-        <v>12.63</v>
+        <v>9.07</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>16.46</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.99</v>
+        <v>18.74</v>
       </c>
       <c r="C11" t="n">
-        <v>19.18</v>
+        <v>12.76</v>
       </c>
       <c r="D11" t="n">
-        <v>0.68</v>
+        <v>1.14</v>
       </c>
       <c r="E11" t="n">
-        <v>10.73</v>
+        <v>6.34</v>
       </c>
       <c r="F11" t="n">
-        <v>14.13</v>
+        <v>13.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>17.69</v>
+        <v>8.75</v>
       </c>
       <c r="I11" t="n">
-        <v>18.59</v>
+        <v>10.75</v>
       </c>
       <c r="J11" t="n">
-        <v>16.14</v>
+        <v>8.83</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.089481382096811</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.36005050296175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.40444243399373</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.686096956429339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1826815256094252</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.216358238768418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.429558797845583</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.57152297316575</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.00915777175759</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.16388918863581</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.563546266947137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.537907298543975</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-6.177231333321916</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.00354618377997945</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.56971160485378</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.853058949737475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.332768368094811</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.25582690793114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1703776954792527</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.355822861789312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9402834008097166</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.089777777777778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2827075341046867</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001664161682128906</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10.445</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6804123711340209</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.778666666666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2001876170953209</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001275539398193359</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.458745874587459</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.907777777777778</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2272058182125611</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4412815570831299</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9941324392288349</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.31088888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9080973756321183</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.75096583366394</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4.740000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.351851851851852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.269555555555556</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1477277545655453</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1369686126708984</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7.629999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8952380952380953</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2676204608537345</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8372869491577148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.462046204620462</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.186888888888889</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2236946609671558</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.907223463058472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.835</v>
+        <v>4.76</v>
       </c>
       <c r="D2" t="n">
-        <v>21.58</v>
+        <v>28.4</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71</v>
+        <v>25.1</v>
       </c>
       <c r="F2" t="n">
-        <v>24.435</v>
+        <v>23.67</v>
       </c>
       <c r="G2" t="n">
-        <v>23.545</v>
+        <v>27.02</v>
       </c>
       <c r="H2" t="n">
-        <v>9.844999999999999</v>
+        <v>10.84</v>
       </c>
       <c r="I2" t="n">
-        <v>23.645</v>
+        <v>24.35</v>
       </c>
       <c r="J2" t="n">
-        <v>27.575</v>
+        <v>41.41</v>
       </c>
       <c r="K2" t="n">
-        <v>22.49</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.835</v>
+        <v>4.91</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.59</v>
+        <v>11.18</v>
       </c>
       <c r="E3" t="n">
-        <v>25.135</v>
+        <v>38.34</v>
       </c>
       <c r="F3" t="n">
-        <v>35.175</v>
+        <v>37.56</v>
       </c>
       <c r="G3" t="n">
-        <v>22.71</v>
+        <v>25.34</v>
       </c>
       <c r="H3" t="n">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="I3" t="n">
-        <v>17.835</v>
+        <v>17.22</v>
       </c>
       <c r="J3" t="n">
-        <v>25.15</v>
+        <v>19.06</v>
       </c>
       <c r="K3" t="n">
-        <v>16.02</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.58</v>
+        <v>14.76</v>
       </c>
       <c r="C4" t="n">
-        <v>12.59</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.685</v>
+        <v>4.99</v>
       </c>
       <c r="F4" t="n">
-        <v>11.905</v>
+        <v>15.07</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.81</v>
       </c>
       <c r="H4" t="n">
-        <v>9.73</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>10.1</v>
+        <v>10.59</v>
       </c>
       <c r="J4" t="n">
-        <v>9.31</v>
+        <v>11.39</v>
       </c>
       <c r="K4" t="n">
-        <v>1.165</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.71</v>
+        <v>18.32</v>
       </c>
       <c r="C5" t="n">
-        <v>25.135</v>
+        <v>11.93</v>
       </c>
       <c r="D5" t="n">
-        <v>5.685</v>
+        <v>6.38</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.29</v>
+        <v>13.06</v>
       </c>
       <c r="G5" t="n">
-        <v>6.494999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="H5" t="n">
-        <v>10.83</v>
+        <v>10.46</v>
       </c>
       <c r="I5" t="n">
-        <v>17.25</v>
+        <v>18.19</v>
       </c>
       <c r="J5" t="n">
-        <v>1.695</v>
+        <v>1.7</v>
       </c>
       <c r="K5" t="n">
-        <v>8.9</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.435</v>
+        <v>25.2</v>
       </c>
       <c r="C6" t="n">
-        <v>35.175</v>
+        <v>32.79</v>
       </c>
       <c r="D6" t="n">
-        <v>11.905</v>
+        <v>8.74</v>
       </c>
       <c r="E6" t="n">
-        <v>16.29</v>
+        <v>19.52</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.095000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="H6" t="n">
-        <v>23.79</v>
+        <v>20.35</v>
       </c>
       <c r="I6" t="n">
-        <v>2.565</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>15.19</v>
+        <v>14.09</v>
       </c>
       <c r="K6" t="n">
-        <v>13.875</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.545</v>
+        <v>20.07</v>
       </c>
       <c r="C7" t="n">
-        <v>22.71</v>
+        <v>20.08</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2.19</v>
       </c>
       <c r="E7" t="n">
-        <v>6.494999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="F7" t="n">
-        <v>9.095000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="I7" t="n">
-        <v>7.630000000000001</v>
+        <v>10.39</v>
       </c>
       <c r="J7" t="n">
-        <v>10.83</v>
+        <v>9.76</v>
       </c>
       <c r="K7" t="n">
-        <v>2.48</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.844999999999999</v>
+        <v>8.85</v>
       </c>
       <c r="C8" t="n">
-        <v>3.88</v>
+        <v>4.32</v>
       </c>
       <c r="D8" t="n">
-        <v>9.73</v>
+        <v>13.46</v>
       </c>
       <c r="E8" t="n">
-        <v>10.83</v>
+        <v>11.2</v>
       </c>
       <c r="F8" t="n">
-        <v>23.79</v>
+        <v>27.23</v>
       </c>
       <c r="G8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.785</v>
+        <v>25.4</v>
       </c>
       <c r="J8" t="n">
-        <v>13.545</v>
+        <v>11.7</v>
       </c>
       <c r="K8" t="n">
-        <v>15.44</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.645</v>
+        <v>22.94</v>
       </c>
       <c r="C9" t="n">
-        <v>17.835</v>
+        <v>18.45</v>
       </c>
       <c r="D9" t="n">
-        <v>10.1</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>17.25</v>
+        <v>16.31</v>
       </c>
       <c r="F9" t="n">
-        <v>2.565</v>
+        <v>2.97</v>
       </c>
       <c r="G9" t="n">
-        <v>7.630000000000001</v>
+        <v>4.87</v>
       </c>
       <c r="H9" t="n">
-        <v>33.785</v>
+        <v>42.17</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14.185</v>
+        <v>15.74</v>
       </c>
       <c r="K9" t="n">
-        <v>13.42</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.575</v>
+        <v>13.74</v>
       </c>
       <c r="C10" t="n">
-        <v>25.15</v>
+        <v>31.24</v>
       </c>
       <c r="D10" t="n">
-        <v>9.31</v>
+        <v>7.23</v>
       </c>
       <c r="E10" t="n">
-        <v>1.695</v>
+        <v>1.69</v>
       </c>
       <c r="F10" t="n">
-        <v>15.19</v>
+        <v>16.29</v>
       </c>
       <c r="G10" t="n">
-        <v>10.83</v>
+        <v>11.9</v>
       </c>
       <c r="H10" t="n">
-        <v>13.545</v>
+        <v>15.39</v>
       </c>
       <c r="I10" t="n">
-        <v>14.185</v>
+        <v>12.63</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>16.3</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.49</v>
+        <v>20.99</v>
       </c>
       <c r="C11" t="n">
-        <v>16.02</v>
+        <v>19.18</v>
       </c>
       <c r="D11" t="n">
-        <v>1.165</v>
+        <v>0.68</v>
       </c>
       <c r="E11" t="n">
-        <v>8.9</v>
+        <v>10.73</v>
       </c>
       <c r="F11" t="n">
-        <v>13.875</v>
+        <v>14.13</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>1.49</v>
       </c>
       <c r="H11" t="n">
-        <v>15.44</v>
+        <v>17.69</v>
       </c>
       <c r="I11" t="n">
-        <v>13.42</v>
+        <v>18.59</v>
       </c>
       <c r="J11" t="n">
-        <v>16.3</v>
+        <v>16.14</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="J2" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.76</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21.63</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.089481382096811</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-12.36005050296175</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-4.40444243399373</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.686096956429339</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.1826815256094252</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5.216358238768418</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.429558797845583</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.57152297316575</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.00915777175759</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.16388918863581</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.563546266947137</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.537907298543975</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.177231333321916</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.00354618377997945</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>10.56971160485378</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.853058949737475</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.332768368094811</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.25582690793114</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.1703776954792527</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.355822861789312</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.14</v>
+        <v>4.83</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22</v>
+        <v>20.48</v>
       </c>
       <c r="E2" t="n">
-        <v>2.74</v>
+        <v>21.44</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>24.42</v>
       </c>
       <c r="G2" t="n">
-        <v>2.01</v>
+        <v>23.28</v>
       </c>
       <c r="H2" t="n">
-        <v>1.89</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.61</v>
+        <v>23.64</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>23.85</v>
       </c>
       <c r="K2" t="n">
-        <v>1.96</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.14</v>
+        <v>4.83</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>12.51</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6</v>
+        <v>21.39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.24</v>
+        <v>35.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.87</v>
+        <v>22.56</v>
       </c>
       <c r="H3" t="n">
-        <v>0.75</v>
+        <v>3.86</v>
       </c>
       <c r="I3" t="n">
-        <v>0.53</v>
+        <v>17.82</v>
       </c>
       <c r="J3" t="n">
-        <v>1.66</v>
+        <v>24.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.82</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.22</v>
+        <v>20.48</v>
       </c>
       <c r="C4" t="n">
-        <v>1.08</v>
+        <v>12.51</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.52</v>
+        <v>5.64</v>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>11.48</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>2.89</v>
       </c>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>8.99</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>10.09</v>
       </c>
       <c r="J4" t="n">
-        <v>0.59</v>
+        <v>9.08</v>
       </c>
       <c r="K4" t="n">
-        <v>0.25</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.74</v>
+        <v>21.44</v>
       </c>
       <c r="C5" t="n">
-        <v>1.6</v>
+        <v>21.39</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>5.64</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>15.97</v>
       </c>
       <c r="G5" t="n">
-        <v>0.73</v>
+        <v>6.49</v>
       </c>
       <c r="H5" t="n">
-        <v>0.84</v>
+        <v>10.82</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>17.22</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="K5" t="n">
-        <v>0.77</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.91</v>
+        <v>24.42</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24</v>
+        <v>35.09</v>
       </c>
       <c r="D6" t="n">
-        <v>1.31</v>
+        <v>11.48</v>
       </c>
       <c r="E6" t="n">
-        <v>1.83</v>
+        <v>15.97</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>8.84</v>
       </c>
       <c r="H6" t="n">
-        <v>0.99</v>
+        <v>23.54</v>
       </c>
       <c r="I6" t="n">
-        <v>0.29</v>
+        <v>2.54</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>15.15</v>
       </c>
       <c r="K6" t="n">
-        <v>1.06</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.01</v>
+        <v>23.28</v>
       </c>
       <c r="C7" t="n">
-        <v>0.87</v>
+        <v>22.56</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>2.89</v>
       </c>
       <c r="E7" t="n">
-        <v>0.73</v>
+        <v>6.49</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>8.84</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4</v>
+        <v>7.11</v>
       </c>
       <c r="J7" t="n">
-        <v>0.79</v>
+        <v>10.78</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.89</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>3.86</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32</v>
+        <v>8.99</v>
       </c>
       <c r="E8" t="n">
-        <v>0.84</v>
+        <v>10.82</v>
       </c>
       <c r="F8" t="n">
-        <v>0.99</v>
+        <v>23.54</v>
       </c>
       <c r="G8" t="n">
-        <v>0.11</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.28</v>
+        <v>32.73</v>
       </c>
       <c r="J8" t="n">
-        <v>0.91</v>
+        <v>13.42</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07000000000000001</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61</v>
+        <v>23.64</v>
       </c>
       <c r="C9" t="n">
-        <v>0.53</v>
+        <v>17.82</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6</v>
+        <v>10.09</v>
       </c>
       <c r="E9" t="n">
-        <v>2.12</v>
+        <v>17.22</v>
       </c>
       <c r="F9" t="n">
-        <v>0.29</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>7.11</v>
       </c>
       <c r="H9" t="n">
-        <v>1.28</v>
+        <v>32.73</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.19</v>
+        <v>14.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.35</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.8</v>
+        <v>23.85</v>
       </c>
       <c r="C10" t="n">
-        <v>1.66</v>
+        <v>24.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.59</v>
+        <v>9.08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>15.15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.79</v>
+        <v>10.78</v>
       </c>
       <c r="H10" t="n">
-        <v>0.91</v>
+        <v>13.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.19</v>
+        <v>14.1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.84</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.96</v>
+        <v>22.44</v>
       </c>
       <c r="C11" t="n">
-        <v>0.82</v>
+        <v>15.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>1.06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.77</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1.06</v>
+        <v>13.87</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>2.27</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07000000000000001</v>
+        <v>15.27</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>12.39</v>
       </c>
       <c r="J11" t="n">
-        <v>0.84</v>
+        <v>16.3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
